--- a/Algorithm.xlsx
+++ b/Algorithm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HA-PC\Dropbox\PC\Desktop\Learn to Code\C++ Exercises\Exercise 2\BTH02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7F8C3-82DE-49D8-BD65-CB6E06DBBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E70C15-7B91-4C1E-AABF-18C647530A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Bài 1</t>
   </si>
@@ -233,6 +233,108 @@
   </si>
   <si>
     <t>Số hàng trăm</t>
+  </si>
+  <si>
+    <t>Bài 7</t>
+  </si>
+  <si>
+    <t>Tọa độ của 2 điểm</t>
+  </si>
+  <si>
+    <t>Khoảng cách giữa 2 điểm</t>
+  </si>
+  <si>
+    <t>Processing items: none</t>
+  </si>
+  <si>
+    <t>1. Nhập vào tọa độ của hai điểm</t>
+  </si>
+  <si>
+    <t>2. Tính khoảng cách = căn bậc 2 của (x2 - x1)^2 + (y2 - y1)^2</t>
+  </si>
+  <si>
+    <t>3. In ra màn hình khoảng cách giữa 2 điểm</t>
+  </si>
+  <si>
+    <t>(x1;y1)</t>
+  </si>
+  <si>
+    <t>(x2;y2)</t>
+  </si>
+  <si>
+    <t>Khoảng cách</t>
+  </si>
+  <si>
+    <t>(5;2)</t>
+  </si>
+  <si>
+    <t>(3;6)</t>
+  </si>
+  <si>
+    <t>(1;2)</t>
+  </si>
+  <si>
+    <t>(3;4)</t>
+  </si>
+  <si>
+    <t>(4;2)</t>
+  </si>
+  <si>
+    <t>(6;8)</t>
+  </si>
+  <si>
+    <t>Bài 8</t>
+  </si>
+  <si>
+    <t>Giá mua</t>
+  </si>
+  <si>
+    <t>Giá bán</t>
+  </si>
+  <si>
+    <t>1. Nhập vào giá mua</t>
+  </si>
+  <si>
+    <t>2. Tính giá bán = giá mua + giá mua * 60%</t>
+  </si>
+  <si>
+    <t>3. In ra giá bán</t>
+  </si>
+  <si>
+    <t>Bài 9</t>
+  </si>
+  <si>
+    <t>Tổng số tiền mua sách</t>
+  </si>
+  <si>
+    <t>Tổng số sách đã mua</t>
+  </si>
+  <si>
+    <t>Tổng giá trị đơn hàng</t>
+  </si>
+  <si>
+    <t>1. Nhập vào tổng số sách đã mua và tổng số tiền mua sách</t>
+  </si>
+  <si>
+    <t>2. Tính thuế = tổng số tiền mua sách * 7.5%</t>
+  </si>
+  <si>
+    <t>3. Tính tiền vận chuyển = 2000 * tổng số sách đã mua</t>
+  </si>
+  <si>
+    <t>4. Tính tổng giá trị đơn hàng = tổng tiền mua sách + tiền thuế + tiền vận chuyển</t>
+  </si>
+  <si>
+    <t>5. In ra tổng giá trị đơn hàng</t>
+  </si>
+  <si>
+    <t>Processing items: thuế, tiền vận chuyển</t>
+  </si>
+  <si>
+    <t>Thuế</t>
+  </si>
+  <si>
+    <t>Tiền vận chuyển</t>
   </si>
 </sst>
 </file>
@@ -559,23 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1171,6 +1273,289 @@
         <v>64</v>
       </c>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4.4721000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.8283999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6.3244999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>750000</v>
+      </c>
+      <c r="H65" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>11150000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1">
+        <v>300</v>
+      </c>
+      <c r="F66" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>675000</v>
+      </c>
+      <c r="H66" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>10275000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="1">
+        <v>250</v>
+      </c>
+      <c r="F67" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1125000</v>
+      </c>
+      <c r="H67" s="1">
+        <v>500000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>16625000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
